--- a/settings/data_source_credentials.xlsx
+++ b/settings/data_source_credentials.xlsx
@@ -19,7 +19,7 @@
     <t>data_source</t>
   </si>
   <si>
-    <t>gfeed</t>
+    <t>quandl</t>
   </si>
 </sst>
 </file>
